--- a/Externos/Respuestas.xlsx
+++ b/Externos/Respuestas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RickyOrtega\OneDrive\Escritorio\Code_Breaker\Externos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F1A75-0A89-4A1D-9609-2B55EEADC1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DAF1F7-A515-45E6-8B88-E116CDAEB69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-705" windowWidth="29040" windowHeight="15720" xr2:uid="{235882F7-5839-4895-85B1-D821FA78960A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Primero</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>Sexto</t>
+  </si>
+  <si>
+    <t>Cuarto</t>
+  </si>
+  <si>
+    <t>Arriba</t>
+  </si>
+  <si>
+    <t>Izquierda</t>
+  </si>
+  <si>
+    <t>Abajo</t>
+  </si>
+  <si>
+    <t>Quinto</t>
+  </si>
+  <si>
+    <t>Derecha</t>
   </si>
 </sst>
 </file>
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676E7909-FEC4-495E-96AE-F1EA3AADE64F}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,51 +498,73 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B5">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="C5">
         <v>31</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>42</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>62</v>
-      </c>
-      <c r="F3">
-        <v>84</v>
-      </c>
-      <c r="G3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E4">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>48</v>
-      </c>
-      <c r="G4">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <v>-62</v>
       </c>
       <c r="F5">
         <v>84</v>
       </c>
+      <c r="G5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>241</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
+      <c r="E7">
+        <v>-62</v>
+      </c>
+      <c r="F7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
